--- a/routers/upload/收款人模板.xlsx
+++ b/routers/upload/收款人模板.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koori/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13000" tabRatio="500"/>
+    <workbookView windowWidth="17925" windowHeight="7590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="收款人导入" sheetId="3" r:id="rId1"/>
@@ -21,11 +16,6 @@
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -35,13 +25,22 @@
     <t>收款人开户名</t>
   </si>
   <si>
+    <t>身份证号</t>
+  </si>
+  <si>
     <t>银行卡号</t>
   </si>
   <si>
     <t>开户行（无需支行）</t>
   </si>
   <si>
+    <t>收款人电话</t>
+  </si>
+  <si>
     <t>张玉杰</t>
+  </si>
+  <si>
+    <t>132441197308121360</t>
   </si>
   <si>
     <t>6228461730015680411</t>
@@ -52,35 +51,22 @@
   <si>
     <t>13681922530</t>
   </si>
-  <si>
-    <t>身份证号</t>
-    <rPh sb="0" eb="1">
-      <t>shen f zh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>132441197308121360</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -100,14 +86,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,12 +246,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,9 +445,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -139,10 +697,57 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -153,7 +758,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -421,63 +1026,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/收款人模板.xlsx
+++ b/routers/upload/收款人模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B1A316-6F2F-4877-8755-DA0F129C84B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C3E70E-D149-4964-9D93-B425D3C46602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,13 +79,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -95,7 +88,6 @@
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -125,12 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,19 +420,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -455,24 +446,24 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/routers/upload/收款人模板.xlsx
+++ b/routers/upload/收款人模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C3E70E-D149-4964-9D93-B425D3C46602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="收款人导入" sheetId="3" r:id="rId1"/>
@@ -21,7 +15,7 @@
   <definedNames>
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -55,43 +49,193 @@
     <t>中国农业银行</t>
   </si>
   <si>
-    <t>13681922530</t>
+    <t>15288877732</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,12 +244,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,34 +443,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -408,63 +1024,65 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1259259259259" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5037037037037" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5037037037037" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/收款人模板.xlsx
+++ b/routers/upload/收款人模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView windowWidth="20325" windowHeight="11670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="收款人导入" sheetId="3" r:id="rId1"/>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -85,65 +85,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,8 +174,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,38 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -229,7 +215,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +256,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,163 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -470,21 +500,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +524,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -517,175 +541,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="1" outlineLevelCol="4"/>
